--- a/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Noite Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Noite Excel Diario de bordo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Aula</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Tabelas Dinâmicas, Gráficos dinâmicos, Mini gráficos, Segmentação de dados, Gráficos funil com REPT, Filtro Linha do tempo, Colar vinculo de imagens, função texto para formatar números.</t>
+  </si>
+  <si>
+    <t>Função Procv, Comparar valores entre tabelas; Definir nomes, Copiar abas, Funções texto, Direita, Esquerda, E ext.texto, validação de dados em lista, função fórmula texto.</t>
+  </si>
+  <si>
+    <t>Funçõis data, Dia, Ano, Mês, Dia da semana, Numero da semana, juntar data, Hoje, Agora, Int, Pri.maiuscula, Horas superiores a 24h, datadif, Congelar paineis, extrair cores para formatações, texto com datas.</t>
   </si>
 </sst>
 </file>
@@ -395,6 +401,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,15 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,9 +739,9 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12:O12"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -751,22 +757,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36">
@@ -783,18 +789,18 @@
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
@@ -923,7 +929,9 @@
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -937,12 +945,12 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18">
       <c r="A8" s="10"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -957,12 +965,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18">
       <c r="A9" s="10"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -989,7 +997,9 @@
       <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -1107,6 +1117,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -1114,13 +1131,6 @@
     <mergeCell ref="F10:O10"/>
     <mergeCell ref="F13:O13"/>
     <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Noite Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Noite Excel Diario de bordo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Aula</t>
   </si>
@@ -123,7 +123,16 @@
     <t>Função Procv, Comparar valores entre tabelas; Definir nomes, Copiar abas, Funções texto, Direita, Esquerda, E ext.texto, validação de dados em lista, função fórmula texto.</t>
   </si>
   <si>
-    <t>Funçõis data, Dia, Ano, Mês, Dia da semana, Numero da semana, juntar data, Hoje, Agora, Int, Pri.maiuscula, Horas superiores a 24h, datadif, Congelar paineis, extrair cores para formatações, texto com datas.</t>
+    <t>Funçoes data, Dia, Ano, Mês, Dia da semana, Numero da semana, juntar data, Hoje, Agora, Int, Pri.maiuscula, Horas superiores a 24h, datadif, Congelar paineis, extrair cores para formatações, texto com datas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formatação Condicional. Função PGTO, Écel.Vazia, Criar hiperlinks, Proteger planilhas, </t>
+  </si>
+  <si>
+    <t>Indice, (revisão procv, somase, somases, F4), Importar textos e documentos da WEB, Habilitar aba desenvolvedor, Caixa de combinação, Botao de rotação, barra de rolagem.</t>
+  </si>
+  <si>
+    <t>Prova...</t>
   </si>
 </sst>
 </file>
@@ -401,15 +410,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,6 +420,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,9 +748,9 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11:O11"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -757,22 +766,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36">
@@ -789,18 +798,18 @@
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
@@ -945,12 +954,12 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18">
       <c r="A8" s="10"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -965,12 +974,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18">
       <c r="A9" s="10"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1025,7 +1034,9 @@
       <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -1051,7 +1062,9 @@
       <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -1103,7 +1116,9 @@
       <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -1117,6 +1132,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F11:O11"/>
     <mergeCell ref="F6:O6"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F4:O4"/>
@@ -1124,13 +1146,6 @@
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F11:O11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Noite Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/439 Intensivo Noite Excel Diario de bordo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Aula</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Prova...</t>
+  </si>
+  <si>
+    <t>Macro, botoes de macro(muda cor, classifica), indice com o corresp, salvar macro,</t>
   </si>
 </sst>
 </file>
@@ -410,6 +413,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,15 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +753,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -766,22 +769,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36">
@@ -798,18 +801,18 @@
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
@@ -954,12 +957,12 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18">
       <c r="A8" s="10"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -974,12 +977,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18">
       <c r="A9" s="10"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1090,7 +1093,9 @@
       <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -1132,6 +1137,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -1139,13 +1151,6 @@
     <mergeCell ref="F10:O10"/>
     <mergeCell ref="F13:O13"/>
     <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
